--- a/src/attributions/attributions_ig_traj_499.xlsx
+++ b/src/attributions/attributions_ig_traj_499.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1543105762148607</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007794348319334301</v>
+        <v>-0.09990638128057558</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2120382236287753</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08292724219305746</v>
+        <v>0.01537492257737358</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1575120726606523</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02983666089555463</v>
+        <v>-0.07541003767991721</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.1924694857085359</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1305505777748387</v>
+        <v>0.02980939654462182</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,106 +1055,106 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04041794809955779</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.01413229421588134</v>
+        <v>-0.112993313119286</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01741763980473633</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04785553647888872</v>
+        <v>-0.05480521067106651</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07737862313245084</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.04232486622323797</v>
+        <v>-0.04763560623632488</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.001231494748786342</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.001467600079682734</v>
+        <v>0.02180049073613898</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02602837860731605</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00851399794999734</v>
+        <v>-0.017011889677344</v>
       </c>
       <c r="AM2" t="n">
         <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.01655520015105</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03416970073973866</v>
+        <v>0.08616768995696322</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05645197786994818</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.001671406320340799</v>
+        <v>0.008540910523613702</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.02384383279224323</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01114177432881384</v>
+        <v>0.002653279452716468</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06732768918418254</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.002172450842145371</v>
+        <v>-0.05609398520719405</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.0901994727725183</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05884119689512445</v>
+        <v>0.03183116576526138</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03895688554780142</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0129115403122517</v>
+        <v>-0.01740503018763945</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04817202116933253</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.0006016494293914545</v>
+        <v>-0.0458225377765082</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.06993561764518419</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01222018422214475</v>
+        <v>-0.03495484539737654</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.0121282688106168</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.1044860082834466</v>
+        <v>-0.01135934596789276</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01087790281649448</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.01128724966693379</v>
+        <v>0.02622384571045857</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.01464824478628676</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03815695078331588</v>
+        <v>-0.003218958377605594</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0146582210583125</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.03198442696213937</v>
+        <v>-0.02910295133324822</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.06160945795060888</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02048741959041967</v>
+        <v>0.06346280035528887</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.002623686113697427</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.007398188080490491</v>
+        <v>0.03159391713659575</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.02389457700439125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02929400336121628</v>
+        <v>-0.002725825012946287</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,76 +1328,76 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005001020207971523</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03828991831726326</v>
+        <v>0.03764982877090165</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.0241140576307954</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02228392128337407</v>
+        <v>0.02752073542778462</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.03197889380894468</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0252127988536053</v>
+        <v>0.01583361300337519</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.0730609548709788</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01963416756698366</v>
+        <v>0.04441029524461618</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.006949131736525361</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01741853079596682</v>
+        <v>-0.02475748232067152</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.009866557565529403</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.01735582116157148</v>
+        <v>-0.0194466426991889</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,46 +1409,46 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.073376087825566</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01162197649749138</v>
+        <v>0.02151702844159892</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.08375347685187916</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01145620797867762</v>
+        <v>-0.06249611160263986</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.004660046752480588</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04324271077051436</v>
+        <v>0.02732689672173665</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.05271352491748541</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.004478308589090474</v>
+        <v>0.0208501322478133</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
@@ -1463,46 +1463,46 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.015401528062256</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.005757533380684457</v>
+        <v>0.02384157451425638</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.01968171241820138</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03826579609167364</v>
+        <v>-0.001258152351482244</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.007243078818266135</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.006651707128153261</v>
+        <v>-0.00624867786378639</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.001504019357684276</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02047386900996105</v>
+        <v>-0.04666068744010858</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1517,55 +1517,55 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0621862773148133</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.002091529241366272</v>
+        <v>-0.02887421200155625</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.006761150360827417</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0369518253148803</v>
+        <v>0.001189711286788366</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.04009273579899253</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.04708430920377936</v>
+        <v>-0.05896639299117197</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02240035335631822</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
